--- a/output/DIVIDEND/rebalance/rebalance_20241231.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20241231.xlsx
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02453364234710871</v>
+        <v>0.02453365553522599</v>
       </c>
       <c r="C2" t="n">
         <v>0.02360828755569012</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0009253547914185867</v>
+        <v>-0.0009253679795358655</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0163438463118473</v>
+        <v>0.01634385832904127</v>
       </c>
       <c r="C3" t="n">
         <v>0.02360828755569012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007264441243842828</v>
+        <v>0.007264429226648855</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5913,13 +5913,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02145316182823701</v>
+        <v>0.02145383010802825</v>
       </c>
       <c r="C5" t="n">
         <v>0.02289026341969808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001437101591461074</v>
+        <v>0.001436433311669837</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5934,13 +5934,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01708879319066154</v>
+        <v>0.01708923363789997</v>
       </c>
       <c r="C6" t="n">
         <v>0.02285565984687919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005766866656217645</v>
+        <v>0.005766426208979214</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5955,13 +5955,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01941036071454333</v>
+        <v>0.01941036031093075</v>
       </c>
       <c r="C7" t="n">
         <v>0.02247502054587136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003064659831328035</v>
+        <v>0.003064660234940605</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03328402025567617</v>
+        <v>0.0332840394619975</v>
       </c>
       <c r="C8" t="n">
         <v>0.02237120982741468</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01091281042826149</v>
+        <v>-0.01091282963458283</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02012660440845646</v>
+        <v>0.02012636930090281</v>
       </c>
       <c r="C9" t="n">
         <v>0.02205977767204464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001933173263588179</v>
+        <v>0.001933408371141827</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6018,13 +6018,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02770907564064973</v>
+        <v>0.02770877965041122</v>
       </c>
       <c r="C10" t="n">
         <v>0.0219732687399974</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00573580690065233</v>
+        <v>-0.00573551091041382</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6039,13 +6039,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02231373042146179</v>
+        <v>0.02231371169049406</v>
       </c>
       <c r="C11" t="n">
         <v>0.02181755266231238</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0004961777591494104</v>
+        <v>-0.0004961590281816787</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6060,13 +6060,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01777890175564041</v>
+        <v>0.01777924534171208</v>
       </c>
       <c r="C12" t="n">
         <v>0.0217483455166746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00396944376103419</v>
+        <v>0.00396910017496252</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6081,13 +6081,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02543627751276126</v>
+        <v>0.02543689344149306</v>
       </c>
       <c r="C13" t="n">
         <v>0.02167913837103681</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003757139141724451</v>
+        <v>-0.003757755070456247</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01908846857743396</v>
+        <v>0.01908868627500922</v>
       </c>
       <c r="C14" t="n">
         <v>0.02122929192439119</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00214082334695723</v>
+        <v>0.002140605649381976</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01492212491893208</v>
+        <v>0.01492182648252756</v>
       </c>
       <c r="C15" t="n">
         <v>0.02109087763311562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00616875271418354</v>
+        <v>0.006169051150588059</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02315174848871321</v>
+        <v>0.02315175768916711</v>
       </c>
       <c r="C16" t="n">
         <v>0.0209005579826117</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002251190506101508</v>
+        <v>-0.00225119970655541</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0193068933480137</v>
+        <v>0.019307220522267</v>
       </c>
       <c r="C17" t="n">
         <v>0.02074484190492669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001437948556912982</v>
+        <v>0.001437621382659685</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01765550034201368</v>
+        <v>0.01765565540084391</v>
       </c>
       <c r="C19" t="n">
         <v>0.02048531510878498</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002829814766771299</v>
+        <v>0.002829659707941072</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02431115320399835</v>
+        <v>0.02431075991546331</v>
       </c>
       <c r="C20" t="n">
         <v>0.02041610796314719</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003895045240851162</v>
+        <v>-0.003894651952316121</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02177608073248913</v>
+        <v>0.02177634384178932</v>
       </c>
       <c r="C21" t="n">
         <v>0.0203815043903283</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001394576342160829</v>
+        <v>-0.001394839451461013</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02563510526813872</v>
+        <v>0.02563579181364972</v>
       </c>
       <c r="C22" t="n">
         <v>0.02031229724469051</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005322808023448207</v>
+        <v>-0.005323494568959208</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01757546754341323</v>
+        <v>0.01757546870478402</v>
       </c>
       <c r="C23" t="n">
         <v>0.02024309009905273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002667622555639501</v>
+        <v>0.002667621394268703</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02015429363024078</v>
+        <v>0.02015429118732174</v>
       </c>
       <c r="C24" t="n">
         <v>0.02010467580777715</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.961782246362678e-05</v>
+        <v>-4.961537954458958e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01815627775259233</v>
+        <v>0.01815642576060418</v>
       </c>
       <c r="C25" t="n">
         <v>0.02005277044854881</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001896492695956483</v>
+        <v>0.001896344687944626</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02349057946924325</v>
+        <v>0.02349018356352175</v>
       </c>
       <c r="C26" t="n">
         <v>0.02003546866213936</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.003455110807103881</v>
+        <v>-0.00345471490138239</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0198656199462078</v>
+        <v>0.01986578508119067</v>
       </c>
       <c r="C27" t="n">
         <v>0.01998356330291103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001179433567032283</v>
+        <v>0.0001177782217203563</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02221331122959302</v>
+        <v>0.02221289479326771</v>
       </c>
       <c r="C28" t="n">
         <v>0.01970673472035988</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002506576509233145</v>
+        <v>-0.002506160072907829</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01557574998410347</v>
+        <v>0.01557593899871831</v>
       </c>
       <c r="C29" t="n">
         <v>0.01961157489510792</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004035824911004449</v>
+        <v>0.004035635896389616</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01986785304245313</v>
+        <v>0.01986792291282839</v>
       </c>
       <c r="C30" t="n">
         <v>0.01949911328344651</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0003687397590066178</v>
+        <v>-0.0003688096293818777</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02540822209784266</v>
+        <v>0.02540824522918626</v>
       </c>
       <c r="C31" t="n">
         <v>0.01948181149703707</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.005926410600805593</v>
+        <v>-0.005926433732149187</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01958534788069832</v>
+        <v>0.01958521425010732</v>
       </c>
       <c r="C32" t="n">
         <v>0.01937800077858039</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0002073471021179323</v>
+        <v>-0.0002072134715269298</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0190886848023069</v>
+        <v>0.01908857066151735</v>
       </c>
       <c r="C33" t="n">
         <v>0.01913577576884813</v>
       </c>
       <c r="D33" t="n">
-        <v>4.709096654123557e-05</v>
+        <v>4.720510733077776e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0181706774586889</v>
+        <v>0.01817029121284576</v>
       </c>
       <c r="C34" t="n">
         <v>0.01911847398243869</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0009477965237497839</v>
+        <v>0.0009481827695929229</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02246694542158489</v>
+        <v>0.02246701917889571</v>
       </c>
       <c r="C35" t="n">
         <v>0.01896275790475366</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.003504187516831229</v>
+        <v>-0.003504261274142047</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01994280434080037</v>
+        <v>0.01994332889224936</v>
       </c>
       <c r="C36" t="n">
         <v>0.01866862753579307</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001274176805007295</v>
+        <v>-0.001274701356456288</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02229894363410263</v>
+        <v>0.02229807555448432</v>
       </c>
       <c r="C37" t="n">
         <v>0.01856481681733639</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.003734126816766235</v>
+        <v>-0.003733258737147926</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02364957254937034</v>
+        <v>0.02364864815028523</v>
       </c>
       <c r="C38" t="n">
         <v>0.01847830788528916</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.005171264664081184</v>
+        <v>-0.005170340264996073</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01927859294827356</v>
+        <v>0.01927852372283498</v>
       </c>
       <c r="C39" t="n">
         <v>0.01837449716683247</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0009040957814410826</v>
+        <v>-0.0009040265560025067</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01596106910342632</v>
+        <v>0.01596094020994482</v>
       </c>
       <c r="C40" t="n">
         <v>0.01835719538042303</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002396126276996712</v>
+        <v>0.002396255170478208</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01851840632840081</v>
+        <v>0.01851824404080285</v>
       </c>
       <c r="C41" t="n">
         <v>0.01821878108914745</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0002996252392533615</v>
+        <v>-0.0002994629516553972</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01994509449601148</v>
+        <v>0.01994506900311622</v>
       </c>
       <c r="C42" t="n">
         <v>0.01809766858428133</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001847425911730153</v>
+        <v>-0.001847400418834893</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01428542187937624</v>
+        <v>0.01428571293301292</v>
       </c>
       <c r="C43" t="n">
         <v>0.0179765560794152</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003691134200038955</v>
+        <v>0.00369084314640228</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01570680273393872</v>
+        <v>0.01570677088595632</v>
       </c>
       <c r="C44" t="n">
         <v>0.01795925429300575</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002252451559067035</v>
+        <v>0.002252483407049432</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01962957931193389</v>
+        <v>0.01962986622047501</v>
       </c>
       <c r="C45" t="n">
         <v>0.01785544357454907</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001774135737384816</v>
+        <v>-0.001774422645925939</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01623334726687454</v>
+        <v>0.01623331037539182</v>
       </c>
       <c r="C46" t="n">
         <v>0.01783814178813962</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001604794521265083</v>
+        <v>0.001604831412747802</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01818303681311889</v>
+        <v>0.01818306562814503</v>
       </c>
       <c r="C47" t="n">
         <v>0.01775163285609239</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0004314039570265035</v>
+        <v>-0.0004314327720526361</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01992496006112019</v>
+        <v>0.01992503706021026</v>
       </c>
       <c r="C48" t="n">
         <v>0.01773433106968294</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.002190628991437248</v>
+        <v>-0.002190705990527314</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01794496681197005</v>
+        <v>0.01794486405870524</v>
       </c>
       <c r="C49" t="n">
         <v>0.01754401141917903</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0004009553927910164</v>
+        <v>-0.0004008526395262134</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01261690288974448</v>
+        <v>0.01261685307254121</v>
       </c>
       <c r="C50" t="n">
         <v>0.01752670963276958</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004909806743025106</v>
+        <v>0.004909856560228373</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01694990345378075</v>
+        <v>0.01694947199414093</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01694990345378075</v>
+        <v>-0.01694947199414093</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01708374084875696</v>
+        <v>0.01708351252583067</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01708374084875696</v>
+        <v>-0.01708351252583067</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01890233500325449</v>
+        <v>0.01890243538822958</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01890233500325449</v>
+        <v>-0.01890243538822958</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20241231.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20241231.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>12.21%</t>
         </is>
       </c>
     </row>
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02453365553522599</v>
+        <v>0.0239962727206326</v>
       </c>
       <c r="C2" t="n">
         <v>0.02360828755569012</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0009253679795358655</v>
+        <v>-0.0003879851649424802</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01634385832904127</v>
+        <v>0.01612554726874689</v>
       </c>
       <c r="C3" t="n">
         <v>0.02360828755569012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007264429226648855</v>
+        <v>0.007482740286943231</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5913,13 +5913,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02145383010802825</v>
+        <v>0.02149808775689497</v>
       </c>
       <c r="C5" t="n">
         <v>0.02289026341969808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001436433311669837</v>
+        <v>0.001392175662803113</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5934,13 +5934,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01708923363789997</v>
+        <v>0.01643592350664809</v>
       </c>
       <c r="C6" t="n">
         <v>0.02285565984687919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005766426208979214</v>
+        <v>0.006419736340231103</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5955,13 +5955,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01941036031093075</v>
+        <v>0.01920971028709313</v>
       </c>
       <c r="C7" t="n">
         <v>0.02247502054587136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003064660234940605</v>
+        <v>0.003265310258778228</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0332840394619975</v>
+        <v>0.0333537216605986</v>
       </c>
       <c r="C8" t="n">
         <v>0.02237120982741468</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01091282963458283</v>
+        <v>-0.01098251183318392</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02012636930090281</v>
+        <v>0.02016875233989058</v>
       </c>
       <c r="C9" t="n">
         <v>0.02205977767204464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001933408371141827</v>
+        <v>0.001891025332154062</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6018,13 +6018,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02770877965041122</v>
+        <v>0.02776710232992645</v>
       </c>
       <c r="C10" t="n">
         <v>0.0219732687399974</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00573551091041382</v>
+        <v>-0.005793833589929041</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6039,13 +6039,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02231371169049406</v>
+        <v>0.02236045850140792</v>
       </c>
       <c r="C11" t="n">
         <v>0.02181755266231238</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0004961590281816787</v>
+        <v>-0.0005429058390955394</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6060,13 +6060,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01777924534171208</v>
+        <v>0.01781613326856542</v>
       </c>
       <c r="C12" t="n">
         <v>0.0217483455166746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00396910017496252</v>
+        <v>0.00393221224810918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6081,13 +6081,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02543689344149306</v>
+        <v>0.02548954464410589</v>
       </c>
       <c r="C13" t="n">
         <v>0.02167913837103681</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003757755070456247</v>
+        <v>-0.00381040627306908</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01908868627500922</v>
+        <v>0.01912844250688853</v>
       </c>
       <c r="C14" t="n">
         <v>0.02122929192439119</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002140605649381976</v>
+        <v>0.002100849417502659</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01492182648252756</v>
+        <v>0.01495337394063341</v>
       </c>
       <c r="C15" t="n">
         <v>0.02109087763311562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006169051150588059</v>
+        <v>0.006137503692482203</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02315175768916711</v>
+        <v>0.02320023149598452</v>
       </c>
       <c r="C16" t="n">
         <v>0.0209005579826117</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00225119970655541</v>
+        <v>-0.002299673513372815</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.019307220522267</v>
+        <v>0.01934732468956159</v>
       </c>
       <c r="C17" t="n">
         <v>0.02074484190492669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001437621382659685</v>
+        <v>0.001397517215365098</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01765565540084391</v>
+        <v>0.01769247343507738</v>
       </c>
       <c r="C19" t="n">
         <v>0.02048531510878498</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002829659707941072</v>
+        <v>0.002792841673707604</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02431075991546331</v>
+        <v>0.02436206416729504</v>
       </c>
       <c r="C20" t="n">
         <v>0.02041610796314719</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003894651952316121</v>
+        <v>-0.003945956204147848</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02177634384178932</v>
+        <v>0.02182168289860667</v>
       </c>
       <c r="C21" t="n">
         <v>0.0203815043903283</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001394839451461013</v>
+        <v>-0.001440178508278371</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02563579181364972</v>
+        <v>0.02568878877267928</v>
       </c>
       <c r="C22" t="n">
         <v>0.02031229724469051</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005323494568959208</v>
+        <v>-0.005376491527988761</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01757546870478402</v>
+        <v>0.01761227303657584</v>
       </c>
       <c r="C23" t="n">
         <v>0.02024309009905273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002667621394268703</v>
+        <v>0.002630817062476889</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02015429118732174</v>
+        <v>0.0201964995467874</v>
       </c>
       <c r="C24" t="n">
         <v>0.02010467580777715</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.961537954458958e-05</v>
+        <v>-9.182373901025012e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01815642576060418</v>
+        <v>0.01819429954376408</v>
       </c>
       <c r="C25" t="n">
         <v>0.02005277044854881</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001896344687944626</v>
+        <v>0.001858470904784731</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02349018356352175</v>
+        <v>0.02353977203609279</v>
       </c>
       <c r="C26" t="n">
         <v>0.02003546866213936</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00345471490138239</v>
+        <v>-0.003504303373953421</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01986578508119067</v>
+        <v>0.01990722133958724</v>
       </c>
       <c r="C27" t="n">
         <v>0.01998356330291103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001177782217203563</v>
+        <v>7.634196332378593e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02221289479326771</v>
+        <v>0.02225982901767234</v>
       </c>
       <c r="C28" t="n">
         <v>0.01970673472035988</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002506160072907829</v>
+        <v>-0.002553094297312465</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01557593899871831</v>
+        <v>0.01560836778833124</v>
       </c>
       <c r="C29" t="n">
         <v>0.01961157489510792</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004035635896389616</v>
+        <v>0.004003207106776681</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01986792291282839</v>
+        <v>0.0199094591122492</v>
       </c>
       <c r="C30" t="n">
         <v>0.01949911328344651</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0003688096293818777</v>
+        <v>-0.0004103458288026822</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02540824522918626</v>
+        <v>0.02546143047721501</v>
       </c>
       <c r="C31" t="n">
         <v>0.01948181149703707</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.005926433732149187</v>
+        <v>-0.005979618980177941</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01958521425010732</v>
+        <v>0.01962636234507771</v>
       </c>
       <c r="C32" t="n">
         <v>0.01937800077858039</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0002072134715269298</v>
+        <v>-0.0002483615664973272</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01908857066151735</v>
+        <v>0.01912865918456665</v>
       </c>
       <c r="C33" t="n">
         <v>0.01913577576884813</v>
       </c>
       <c r="D33" t="n">
-        <v>4.720510733077776e-05</v>
+        <v>7.116584281478822e-06</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01817029121284576</v>
+        <v>0.0182087294048641</v>
       </c>
       <c r="C34" t="n">
         <v>0.01911847398243869</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0009481827695929229</v>
+        <v>0.0009097445775745859</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02246701917889571</v>
+        <v>0.02251399435522243</v>
       </c>
       <c r="C35" t="n">
         <v>0.01896275790475366</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.003504261274142047</v>
+        <v>-0.003551236450468762</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01994332889224936</v>
+        <v>0.01998456736912357</v>
       </c>
       <c r="C36" t="n">
         <v>0.01866862753579307</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001274701356456288</v>
+        <v>-0.001315939833330497</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02229807555448432</v>
+        <v>0.02202272686479489</v>
       </c>
       <c r="C37" t="n">
         <v>0.01856481681733639</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.003733258737147926</v>
+        <v>-0.0034579100474585</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02364864815028523</v>
+        <v>0.0236990980700209</v>
       </c>
       <c r="C38" t="n">
         <v>0.01847830788528916</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.005170340264996073</v>
+        <v>-0.005220790184731747</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01927852372283498</v>
+        <v>0.01931896502481659</v>
       </c>
       <c r="C39" t="n">
         <v>0.01837449716683247</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0009040265560025067</v>
+        <v>-0.0009444678579841152</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01596094020994482</v>
+        <v>0.01599449381991268</v>
       </c>
       <c r="C40" t="n">
         <v>0.01835719538042303</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002396255170478208</v>
+        <v>0.002362701560510348</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01851824404080285</v>
+        <v>0.01855718646758168</v>
       </c>
       <c r="C41" t="n">
         <v>0.01821878108914745</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0002994629516553972</v>
+        <v>-0.0003384053784342249</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01994506900311622</v>
+        <v>0.01998686232024077</v>
       </c>
       <c r="C42" t="n">
         <v>0.01809766858428133</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001847400418834893</v>
+        <v>-0.001889193735959444</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01428571293301292</v>
+        <v>0.01431533755564532</v>
       </c>
       <c r="C43" t="n">
         <v>0.0179765560794152</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00369084314640228</v>
+        <v>0.003661218523769881</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01570677088595632</v>
+        <v>0.01573969498099858</v>
       </c>
       <c r="C44" t="n">
         <v>0.01795925429300575</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002252483407049432</v>
+        <v>0.002219559312007176</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01962986622047501</v>
+        <v>0.01967068640313164</v>
       </c>
       <c r="C45" t="n">
         <v>0.01785544357454907</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001774422645925939</v>
+        <v>-0.001815242828582565</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01623331037539182</v>
+        <v>0.0162673421720093</v>
       </c>
       <c r="C46" t="n">
         <v>0.01783814178813962</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001604831412747802</v>
+        <v>0.001570799616130325</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01818306562814503</v>
+        <v>0.01822111464151508</v>
       </c>
       <c r="C47" t="n">
         <v>0.01775163285609239</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0004314327720526361</v>
+        <v>-0.000469481785422686</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01992503706021026</v>
+        <v>0.01996668572101991</v>
       </c>
       <c r="C48" t="n">
         <v>0.01773433106968294</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.002190705990527314</v>
+        <v>-0.002232354651336966</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01794486405870524</v>
+        <v>0.01798254608840577</v>
       </c>
       <c r="C49" t="n">
         <v>0.01754401141917903</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0004008526395262134</v>
+        <v>-0.0004385346692267374</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01261685307254121</v>
+        <v>0.01264332445331853</v>
       </c>
       <c r="C50" t="n">
         <v>0.01752670963276958</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004909856560228373</v>
+        <v>0.004883385179451055</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01694947199414093</v>
+        <v>0.01698539892803397</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01694947199414093</v>
+        <v>-0.01698539892803397</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01708351252583067</v>
+        <v>0.01711951659727961</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01708351252583067</v>
+        <v>-0.01711951659727961</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01890243538822958</v>
+        <v>0.01894191914290832</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01890243538822958</v>
+        <v>-0.01894191914290832</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
